--- a/1-登入样本信息表.xlsx
+++ b/1-登入样本信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="28800" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <r>
       <rPr>
@@ -64,13 +64,10 @@
     <t>linmeiling-R</t>
   </si>
   <si>
-    <t>林梅领（75，女） rDNA 腺癌 - 10756100</t>
+    <t>林梅领（175，女） rDNA 腺癌 - 10756100</t>
   </si>
   <si>
     <t>浙二</t>
-  </si>
-  <si>
-    <t>2020/8/27(抽血8.26)</t>
   </si>
   <si>
     <t>Zhe2_7981_yingshengtai_LC</t>
@@ -100,9 +97,6 @@
     <t>余红娟（69，女） rDNA 鳞癌 - 12623837</t>
   </si>
   <si>
-    <t>2020/8/27(抽血8.25)</t>
-  </si>
-  <si>
     <t>Zhe2_7984_zengyunan_LC</t>
   </si>
   <si>
@@ -111,129 +105,18 @@
   <si>
     <t>曾云岸（84，男） rDNA 肺部阴影，未确定 - 12609683</t>
   </si>
-  <si>
-    <t>登入样本信息表</t>
-  </si>
-  <si>
-    <t>测序结果信息表</t>
-  </si>
-  <si>
-    <t>样本详细疾病信息表</t>
-  </si>
-  <si>
-    <t>name-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 病历号</t>
-  </si>
-  <si>
-    <t>Data Quality-Input</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>Data Quality-bam</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>Data Quality-bam/Input</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>Data Quality-uniq.bam</t>
-  </si>
-  <si>
-    <t>家庭住址</t>
-  </si>
-  <si>
-    <t>Data Quality-uniq_nodup.bam</t>
-  </si>
-  <si>
-    <t>抽血日期</t>
-  </si>
-  <si>
-    <t>Data Quality-uniq_nodup.bam/Input</t>
-  </si>
-  <si>
-    <t>就诊年龄</t>
-  </si>
-  <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>疾病类型</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>TNM</t>
-  </si>
-  <si>
-    <t>分期</t>
-  </si>
-  <si>
-    <t>问题1</t>
-  </si>
-  <si>
-    <t>Sequence ID相同</t>
-  </si>
-  <si>
-    <t>测序批次不同</t>
-  </si>
-  <si>
-    <t>20_09_18</t>
-  </si>
-  <si>
-    <t>问题2</t>
-  </si>
-  <si>
-    <t>同一样本来源重复测序</t>
-  </si>
-  <si>
-    <t>Sequence ID会变化</t>
-  </si>
-  <si>
-    <t>样本病人不变</t>
-  </si>
-  <si>
-    <t>疾病类型不变</t>
-  </si>
-  <si>
-    <t>林梅领1</t>
-  </si>
-  <si>
-    <t>肺癌</t>
-  </si>
-  <si>
-    <t>胃癌</t>
-  </si>
-  <si>
-    <t>病人id+病人姓名</t>
-  </si>
-  <si>
-    <t>批次</t>
-  </si>
-  <si>
-    <t>结果</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,80 +142,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,8 +161,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,8 +193,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,24 +238,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,7 +290,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,7 +305,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +365,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,43 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,115 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,32 +508,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,11 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,17 +570,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,155 +590,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,71 +766,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1227,15 +1084,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G16395"/>
+  <dimension ref="A1:G16360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
@@ -1243,9 +1100,10 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="55.5" customWidth="1"/>
     <col min="6" max="6" width="53.75" customWidth="1"/>
+    <col min="7" max="7" width="31.4017857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1287,8 +1145,8 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
+      <c r="G2" s="5">
+        <v>44070</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1299,19 +1157,19 @@
         <v>7981</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
+      <c r="G3" s="5">
+        <v>44070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1322,19 +1180,19 @@
         <v>7982</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
+      <c r="G4" s="5">
+        <v>44070</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1345,19 +1203,19 @@
         <v>7983</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
+      <c r="G5" s="5">
+        <v>44070</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1368,178 +1226,91 @@
         <v>7984</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
+      <c r="G6" s="5">
+        <v>44070</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="3:5">
-      <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
-      <c r="C19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
-      <c r="E20" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="E21" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
-      <c r="E22" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="10">
-        <v>7980</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
-      <c r="B26" s="10">
-        <v>7980</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5">
@@ -1547,63 +1318,24 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
-      <c r="C29">
-        <v>7980</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
-      <c r="C30">
-        <v>7981</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
-      <c r="D31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1"/>
-      <c r="D32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
@@ -1630,21 +1362,8 @@
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
@@ -66926,151 +66645,11 @@
       <c r="A16359" s="1"/>
       <c r="E16359" s="6"/>
     </row>
-    <row r="16360" spans="1:5">
+    <row r="16360" spans="1:1">
       <c r="A16360" s="1"/>
-      <c r="E16360" s="6"/>
-    </row>
-    <row r="16361" spans="1:5">
-      <c r="A16361" s="1"/>
-      <c r="E16361" s="6"/>
-    </row>
-    <row r="16362" spans="1:5">
-      <c r="A16362" s="1"/>
-      <c r="E16362" s="6"/>
-    </row>
-    <row r="16363" spans="1:5">
-      <c r="A16363" s="1"/>
-      <c r="E16363" s="6"/>
-    </row>
-    <row r="16364" spans="1:5">
-      <c r="A16364" s="1"/>
-      <c r="E16364" s="6"/>
-    </row>
-    <row r="16365" spans="1:5">
-      <c r="A16365" s="1"/>
-      <c r="E16365" s="6"/>
-    </row>
-    <row r="16366" spans="1:5">
-      <c r="A16366" s="1"/>
-      <c r="E16366" s="6"/>
-    </row>
-    <row r="16367" spans="1:5">
-      <c r="A16367" s="1"/>
-      <c r="E16367" s="6"/>
-    </row>
-    <row r="16368" spans="1:5">
-      <c r="A16368" s="1"/>
-      <c r="E16368" s="6"/>
-    </row>
-    <row r="16369" spans="1:5">
-      <c r="A16369" s="1"/>
-      <c r="E16369" s="6"/>
-    </row>
-    <row r="16370" spans="1:5">
-      <c r="A16370" s="1"/>
-      <c r="E16370" s="6"/>
-    </row>
-    <row r="16371" spans="1:5">
-      <c r="A16371" s="1"/>
-      <c r="E16371" s="6"/>
-    </row>
-    <row r="16372" spans="1:5">
-      <c r="A16372" s="1"/>
-      <c r="E16372" s="6"/>
-    </row>
-    <row r="16373" spans="1:5">
-      <c r="A16373" s="1"/>
-      <c r="E16373" s="6"/>
-    </row>
-    <row r="16374" spans="1:5">
-      <c r="A16374" s="1"/>
-      <c r="E16374" s="6"/>
-    </row>
-    <row r="16375" spans="1:5">
-      <c r="A16375" s="1"/>
-      <c r="E16375" s="6"/>
-    </row>
-    <row r="16376" spans="1:5">
-      <c r="A16376" s="1"/>
-      <c r="E16376" s="6"/>
-    </row>
-    <row r="16377" spans="1:5">
-      <c r="A16377" s="1"/>
-      <c r="E16377" s="6"/>
-    </row>
-    <row r="16378" spans="1:5">
-      <c r="A16378" s="1"/>
-      <c r="E16378" s="6"/>
-    </row>
-    <row r="16379" spans="1:5">
-      <c r="A16379" s="1"/>
-      <c r="E16379" s="6"/>
-    </row>
-    <row r="16380" spans="1:5">
-      <c r="A16380" s="1"/>
-      <c r="E16380" s="6"/>
-    </row>
-    <row r="16381" spans="1:5">
-      <c r="A16381" s="1"/>
-      <c r="E16381" s="6"/>
-    </row>
-    <row r="16382" spans="1:5">
-      <c r="A16382" s="1"/>
-      <c r="E16382" s="6"/>
-    </row>
-    <row r="16383" spans="1:5">
-      <c r="A16383" s="1"/>
-      <c r="E16383" s="6"/>
-    </row>
-    <row r="16384" spans="1:5">
-      <c r="A16384" s="1"/>
-      <c r="E16384" s="6"/>
-    </row>
-    <row r="16385" spans="1:5">
-      <c r="A16385" s="1"/>
-      <c r="E16385" s="6"/>
-    </row>
-    <row r="16386" spans="1:5">
-      <c r="A16386" s="1"/>
-      <c r="E16386" s="6"/>
-    </row>
-    <row r="16387" spans="1:5">
-      <c r="A16387" s="1"/>
-      <c r="E16387" s="6"/>
-    </row>
-    <row r="16388" spans="1:5">
-      <c r="A16388" s="1"/>
-      <c r="E16388" s="6"/>
-    </row>
-    <row r="16389" spans="1:5">
-      <c r="A16389" s="1"/>
-      <c r="E16389" s="6"/>
-    </row>
-    <row r="16390" spans="1:5">
-      <c r="A16390" s="1"/>
-      <c r="E16390" s="6"/>
-    </row>
-    <row r="16391" spans="1:5">
-      <c r="A16391" s="1"/>
-      <c r="E16391" s="6"/>
-    </row>
-    <row r="16392" spans="1:5">
-      <c r="A16392" s="1"/>
-      <c r="E16392" s="6"/>
-    </row>
-    <row r="16393" spans="1:5">
-      <c r="A16393" s="1"/>
-      <c r="E16393" s="6"/>
-    </row>
-    <row r="16394" spans="1:5">
-      <c r="A16394" s="1"/>
-      <c r="E16394" s="6"/>
-    </row>
-    <row r="16395" spans="1:1">
-      <c r="A16395" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
